--- a/figures/patients_graph.xlsx
+++ b/figures/patients_graph.xlsx
@@ -199,10 +199,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0" formatCode="d\-mmm">
                   <c:v>42405</c:v>
                 </c:pt>
@@ -238,16 +238,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>42516</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42535</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$13</c:f>
+              <c:f>Sheet1!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -282,7 +285,10 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>37</c:v>
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -317,10 +323,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0" formatCode="d\-mmm">
                   <c:v>42405</c:v>
                 </c:pt>
@@ -356,16 +362,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>42516</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42535</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$13</c:f>
+              <c:f>Sheet1!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -401,6 +410,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -415,11 +427,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1948854656"/>
-        <c:axId val="1948868256"/>
+        <c:axId val="400846080"/>
+        <c:axId val="400859136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1948854656"/>
+        <c:axId val="400846080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42410"/>
@@ -477,12 +489,12 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1948868256"/>
+        <c:crossAx val="400859136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1948868256"/>
+        <c:axId val="400859136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -540,7 +552,7 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1948854656"/>
+        <c:crossAx val="400846080"/>
         <c:crossesAt val="42380"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1188,7 +1200,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9296400" cy="6070600"/>
+    <xdr:ext cx="9303488" cy="6091570"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1477,7 +1489,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1624,16 +1636,25 @@
         <v>42516</v>
       </c>
       <c r="B13">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C13">
         <v>19</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>42535</v>
+      </c>
+      <c r="B14">
+        <v>38</v>
+      </c>
+      <c r="C14">
+        <v>21</v>
+      </c>
+    </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>42405</v>
-      </c>
+      <c r="A16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
